--- a/static/files/funktioner/logik.xlsx
+++ b/static/files/funktioner/logik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27031"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ac1f8984512bd16/Dokumenter/GitHub/www/static/files/funktioner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{E0B402CF-86BE-43A4-8D21-5A330F2C7D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FCA6CC7-CE3E-4F2C-A432-42F4A38BC685}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{E0B402CF-86BE-43A4-8D21-5A330F2C7D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F19F0C58-34AA-4001-A5DD-5050BB995FDB}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4905" windowWidth="29040" windowHeight="15720" xr2:uid="{13101C55-11F9-477E-88C2-2FD88C891CC6}"/>
+    <workbookView xWindow="-26700" yWindow="1905" windowWidth="17115" windowHeight="10740" xr2:uid="{13101C55-11F9-477E-88C2-2FD88C891CC6}"/>
   </bookViews>
   <sheets>
     <sheet name="HVIS" sheetId="3" r:id="rId1"/>
@@ -88,7 +88,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -298,15 +298,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -314,9 +305,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -326,7 +317,16 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -667,7 +667,7 @@
   <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.6" x14ac:dyDescent="0.55000000000000004"/>
@@ -682,20 +682,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -703,67 +703,67 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="12">
         <v>90000</v>
       </c>
-      <c r="D4" s="10" t="str">
-        <f>IF(C4&gt;100000,"Godt salg","Forbedring nøvendig")</f>
-        <v>Forbedring nøvendig</v>
+      <c r="D4" s="7" t="str">
+        <f>IF(C4&gt;100000,"Godt salg","Forbedering Nøvendig")</f>
+        <v>Forbedering Nøvendig</v>
       </c>
       <c r="F4" s="2" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(D4)</f>
-        <v>=HVIS(C4&gt;100000;"Godt salg";"Forbedring nøvendig")</v>
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(D4),"")</f>
+        <v>=HVIS(C4&gt;100000;"Godt salg";"Forbedering Nøvendig")</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="13">
         <v>120000</v>
       </c>
-      <c r="D5" s="12" t="str">
-        <f t="shared" ref="D5:D8" si="0">IF(C5&gt;100000,"Godt salg","Forbedring nøvendig")</f>
+      <c r="D5" s="9" t="str">
+        <f t="shared" ref="D5:D8" si="0">IF(C5&gt;100000,"Godt salg","Forbedering Nøvendig")</f>
         <v>Godt salg</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>140000</v>
       </c>
-      <c r="D6" s="10" t="str">
+      <c r="D6" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Godt salg</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="13">
         <v>89000</v>
       </c>
-      <c r="D7" s="12" t="str">
+      <c r="D7" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>Forbedring nøvendig</v>
+        <v>Forbedering Nøvendig</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="14">
         <v>100000</v>
       </c>
-      <c r="D8" s="14" t="str">
+      <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>Forbedring nøvendig</v>
+        <v>Forbedering Nøvendig</v>
       </c>
     </row>
   </sheetData>
@@ -776,10 +776,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6557ACF-3A29-4C2D-B750-346A8F814EF2}">
-  <dimension ref="B1:E6"/>
+  <dimension ref="B1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.6" x14ac:dyDescent="0.55000000000000004"/>
@@ -793,11 +793,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="5" t="b">
+      <c r="B1" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="3" t="s">
@@ -822,8 +822,14 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(C6)</f>
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(C6),"")</f>
         <v>=HVIS(C4&gt;20;SAND;FALSK)</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="1" t="b">
+        <f>FALSE</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -839,7 +845,7 @@
   <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.6" x14ac:dyDescent="0.55000000000000004"/>
@@ -853,18 +859,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="5" t="b">
+      <c r="B1" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -879,10 +885,10 @@
       </c>
       <c r="C6" s="4" t="b">
         <f>IF(C4&lt;20,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(C6)</f>
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(C6),"")</f>
         <v>=HVIS(C4&lt;20;SAND;FALSK)</v>
       </c>
     </row>
